--- a/data/processed/treatment_group.xlsx
+++ b/data/processed/treatment_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulsharratt/Documents/Hertie/Semester 4/03 - Master's Thesis/thesis_stf/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C11E24D-FC0A-8047-BE4A-C57582E1E059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BF1A65-BCEC-7C4B-9082-19138CD112A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="22620" windowWidth="17680" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="116">
   <si>
     <t>repo</t>
   </si>
@@ -284,9 +284,6 @@
   <si>
     <t xml:space="preserve">Ruby Central Inc. (RubyGems &amp; Bundler (André))
 </t>
-  </si>
-  <si>
-    <t>Ruby Central Inc. (RubyGems 2023)</t>
   </si>
   <si>
     <t>rustls</t>
@@ -728,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -745,7 +742,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1261,28 +1258,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E19">
-        <v>150983</v>
+        <v>151276</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G19">
-        <v>668400</v>
+        <v>1557468.48</v>
       </c>
       <c r="H19" s="1">
-        <v>45146</v>
+        <v>45084</v>
       </c>
       <c r="I19" s="1">
         <v>45657</v>
@@ -1290,182 +1287,153 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E20">
-        <v>151276</v>
+        <v>150828</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G20">
-        <v>1557468.48</v>
+        <v>455000</v>
       </c>
       <c r="H20" s="1">
-        <v>45084</v>
+        <v>45183</v>
       </c>
       <c r="I20" s="1">
-        <v>45657</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E21">
-        <v>150828</v>
+        <v>150988</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G21">
-        <v>455000</v>
+        <v>454350</v>
       </c>
       <c r="H21" s="1">
-        <v>45183</v>
+        <v>45218</v>
       </c>
       <c r="I21" s="1">
-        <v>45473</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E22">
-        <v>150988</v>
+        <v>151272</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G22">
-        <v>454350</v>
+        <v>99060</v>
       </c>
       <c r="H22" s="1">
-        <v>45218</v>
+        <v>45205</v>
       </c>
       <c r="I22" s="1">
-        <v>45657</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E23">
-        <v>151272</v>
+        <v>151251</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G23">
-        <v>99060</v>
+        <v>152000</v>
       </c>
       <c r="H23" s="1">
-        <v>45205</v>
+        <v>45209</v>
       </c>
       <c r="I23" s="1">
-        <v>45291</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="E24">
-        <v>151251</v>
+        <v>150822</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G24">
-        <v>152000</v>
+        <v>200000</v>
       </c>
       <c r="H24" s="1">
-        <v>45209</v>
+        <v>44886</v>
       </c>
       <c r="I24" s="1">
-        <v>45535</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25">
-        <v>150822</v>
-      </c>
-      <c r="F25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25">
-        <v>200000</v>
-      </c>
-      <c r="H25" s="1">
-        <v>44886</v>
-      </c>
-      <c r="I25" s="1">
         <v>45098</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{F78DFE50-675E-E746-B229-C7578CD71FEB}"/>
-    <hyperlink ref="D25" r:id="rId2" xr:uid="{798B476E-A932-6D4A-9CA1-1B5A537BC374}"/>
+    <hyperlink ref="D24" r:id="rId2" xr:uid="{798B476E-A932-6D4A-9CA1-1B5A537BC374}"/>
     <hyperlink ref="D6" r:id="rId3" xr:uid="{9C977226-6AA7-8B42-88E6-29E83D294F08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/processed/treatment_group.xlsx
+++ b/data/processed/treatment_group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulsharratt/Documents/Hertie/Semester 4/03 - Master's Thesis/thesis_stf/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BF1A65-BCEC-7C4B-9082-19138CD112A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8406A8DC-F33C-0542-8E8C-42C6204BB2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="22620" windowWidth="17680" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="22140" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
   <si>
     <t>repo</t>
   </si>
@@ -371,6 +371,60 @@
   </si>
   <si>
     <t>org_name</t>
+  </si>
+  <si>
+    <t>apereo</t>
+  </si>
+  <si>
+    <t>https://github.com/apereo</t>
+  </si>
+  <si>
+    <t>streamich</t>
+  </si>
+  <si>
+    <t>https://github.com/streamich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pac4j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/pac4j </t>
+  </si>
+  <si>
+    <t>wamp-proto</t>
+  </si>
+  <si>
+    <t>https://github.com/wamp-proto</t>
+  </si>
+  <si>
+    <t>dbus2</t>
+  </si>
+  <si>
+    <t>https://github.com/dbus2</t>
+  </si>
+  <si>
+    <t>Ffmpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/FFmpeg</t>
+  </si>
+  <si>
+    <t>Badger-Finance</t>
+  </si>
+  <si>
+    <t>https://github.com/Badger-Finance</t>
+  </si>
+  <si>
+    <t>PGPainless</t>
+  </si>
+  <si>
+    <t>https://github.com/pgpainless</t>
+  </si>
+  <si>
+    <t>Varnish Cache</t>
+  </si>
+  <si>
+    <t>https://github.com/varnishcache</t>
   </si>
 </sst>
 </file>
@@ -424,10 +478,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -725,14 +780,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="41.5" customWidth="1"/>
     <col min="4" max="4" width="44.5" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
@@ -1430,11 +1486,141 @@
         <v>45098</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45296</v>
+      </c>
+      <c r="I25" s="3">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45296</v>
+      </c>
+      <c r="I26" s="3">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="3">
+        <v>45296</v>
+      </c>
+      <c r="I27" s="3">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="3">
+        <v>45296</v>
+      </c>
+      <c r="I28" s="3">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="3">
+        <v>45296</v>
+      </c>
+      <c r="I29" s="3">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45296</v>
+      </c>
+      <c r="I30" s="3">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="3">
+        <v>45296</v>
+      </c>
+      <c r="I31" s="3">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45296</v>
+      </c>
+      <c r="I32" s="3">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45296</v>
+      </c>
+      <c r="I33" s="3">
+        <v>45302</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{F78DFE50-675E-E746-B229-C7578CD71FEB}"/>
     <hyperlink ref="D24" r:id="rId2" xr:uid="{798B476E-A932-6D4A-9CA1-1B5A537BC374}"/>
     <hyperlink ref="D6" r:id="rId3" xr:uid="{9C977226-6AA7-8B42-88E6-29E83D294F08}"/>
+    <hyperlink ref="C26" r:id="rId4" xr:uid="{F8784622-125C-664D-89FD-DA2C985131D2}"/>
+    <hyperlink ref="C25" r:id="rId5" xr:uid="{D641899B-3411-744A-9C5A-43D2AA51CE32}"/>
+    <hyperlink ref="C27" r:id="rId6" xr:uid="{DD9CE228-26AA-BF46-8CEA-A5661757ACAB}"/>
+    <hyperlink ref="C28" r:id="rId7" xr:uid="{DB0E9921-F043-CC49-BB19-6D4439EBF1B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/processed/treatment_group.xlsx
+++ b/data/processed/treatment_group.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulsharratt/Documents/Hertie/Semester 4/03 - Master's Thesis/thesis_stf/data/processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/08 - Hertie/thesis_stf/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8406A8DC-F33C-0542-8E8C-42C6204BB2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154CE3E-04D4-8C48-9CF1-F27A100633A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="22140" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
   <si>
     <t>repo</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>contracting_entity</t>
-  </si>
-  <si>
-    <t>volume</t>
   </si>
   <si>
     <t>start_date</t>
@@ -780,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -792,13 +789,13 @@
     <col min="3" max="3" width="41.5" customWidth="1"/>
     <col min="4" max="4" width="44.5" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -821,794 +818,722 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>37405</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45149</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>596160</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45149</v>
-      </c>
-      <c r="I2" s="1">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3">
         <v>193661</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44855</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="G3">
-        <v>195000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>44855</v>
-      </c>
-      <c r="I3" s="1">
-        <v>45067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>191494</v>
       </c>
       <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44875</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="G4">
-        <v>200000</v>
-      </c>
-      <c r="H4" s="1">
-        <v>44875</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>150821</v>
       </c>
       <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45141</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="G5">
-        <v>136000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>45141</v>
-      </c>
-      <c r="I5" s="1">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E6">
         <v>151274</v>
       </c>
       <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45201</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="G6">
-        <v>203000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45201</v>
-      </c>
-      <c r="I6" s="1">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E7">
         <v>150985</v>
       </c>
       <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45201</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="G7">
-        <v>278700</v>
-      </c>
-      <c r="H7" s="1">
-        <v>45201</v>
-      </c>
-      <c r="I7" s="1">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
       </c>
       <c r="E8">
         <v>150832</v>
       </c>
       <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45224</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="G8">
-        <v>993600</v>
-      </c>
-      <c r="H8" s="1">
-        <v>45224</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45035</v>
+      </c>
+      <c r="H9" s="1">
         <v>45657</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="G9">
-        <v>874940</v>
-      </c>
-      <c r="H9" s="1">
-        <v>45035</v>
-      </c>
-      <c r="I9" s="1">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
       </c>
       <c r="E10">
         <v>150829</v>
       </c>
       <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45035</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="G10">
-        <v>263000</v>
-      </c>
-      <c r="H10" s="1">
-        <v>45035</v>
-      </c>
-      <c r="I10" s="1">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
       </c>
       <c r="E11">
         <v>150978</v>
       </c>
       <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44846</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="G11">
-        <v>195000</v>
-      </c>
-      <c r="H11" s="1">
-        <v>44846</v>
-      </c>
-      <c r="I11" s="1">
-        <v>45058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
       </c>
       <c r="E12">
         <v>151293</v>
       </c>
       <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44859</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>57</v>
       </c>
-      <c r="G12">
-        <v>172860</v>
-      </c>
-      <c r="H12" s="1">
-        <v>44859</v>
-      </c>
-      <c r="I12" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
       </c>
       <c r="E13">
         <v>191303</v>
       </c>
       <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45119</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>62</v>
       </c>
-      <c r="G13">
-        <v>449850</v>
-      </c>
-      <c r="H13" s="1">
-        <v>45119</v>
-      </c>
-      <c r="I13" s="1">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
       </c>
       <c r="E14">
         <v>150853</v>
       </c>
       <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45247</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>67</v>
       </c>
-      <c r="G14">
-        <v>205000</v>
-      </c>
-      <c r="H14" s="1">
-        <v>45247</v>
-      </c>
-      <c r="I14" s="1">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
       </c>
       <c r="E15">
         <v>151273</v>
       </c>
       <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45205</v>
+      </c>
+      <c r="H15" s="1">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>72</v>
       </c>
-      <c r="G15">
-        <v>349875</v>
-      </c>
-      <c r="H15" s="1">
-        <v>45205</v>
-      </c>
-      <c r="I15" s="1">
-        <v>45535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>76</v>
       </c>
       <c r="E16">
         <v>150977</v>
       </c>
       <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45034</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="G16">
-        <v>1056672.77</v>
-      </c>
-      <c r="H16" s="1">
-        <v>45034</v>
-      </c>
-      <c r="I16" s="1">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
       </c>
       <c r="E17">
         <v>150981</v>
       </c>
       <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45035</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>82</v>
       </c>
-      <c r="G17">
-        <v>180000</v>
-      </c>
-      <c r="H17" s="1">
-        <v>45035</v>
-      </c>
-      <c r="I17" s="1">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
         <v>83</v>
       </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
       </c>
       <c r="E18">
         <v>150983</v>
       </c>
       <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="1">
+        <v>44855</v>
+      </c>
+      <c r="H18" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>86</v>
       </c>
-      <c r="G18">
-        <v>200000</v>
-      </c>
-      <c r="H18" s="1">
-        <v>44855</v>
-      </c>
-      <c r="I18" s="1">
-        <v>45067</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
         <v>87</v>
       </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
       </c>
       <c r="E19">
         <v>151276</v>
       </c>
       <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45084</v>
+      </c>
+      <c r="H19" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>90</v>
       </c>
-      <c r="G19">
-        <v>1557468.48</v>
-      </c>
-      <c r="H19" s="1">
-        <v>45084</v>
-      </c>
-      <c r="I19" s="1">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
         <v>91</v>
       </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>92</v>
-      </c>
-      <c r="D20" t="s">
-        <v>93</v>
       </c>
       <c r="E20">
         <v>150828</v>
       </c>
       <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45183</v>
+      </c>
+      <c r="H20" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>94</v>
       </c>
-      <c r="G20">
-        <v>455000</v>
-      </c>
-      <c r="H20" s="1">
-        <v>45183</v>
-      </c>
-      <c r="I20" s="1">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>95</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>96</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
       </c>
       <c r="E21">
         <v>150988</v>
       </c>
       <c r="F21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45218</v>
+      </c>
+      <c r="H21" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>99</v>
       </c>
-      <c r="G21">
-        <v>454350</v>
-      </c>
-      <c r="H21" s="1">
-        <v>45218</v>
-      </c>
-      <c r="I21" s="1">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>100</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>101</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>102</v>
-      </c>
-      <c r="D22" t="s">
-        <v>103</v>
       </c>
       <c r="E22">
         <v>151272</v>
       </c>
       <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45205</v>
+      </c>
+      <c r="H22" s="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>104</v>
       </c>
-      <c r="G22">
-        <v>99060</v>
-      </c>
-      <c r="H22" s="1">
-        <v>45205</v>
-      </c>
-      <c r="I22" s="1">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>105</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>106</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>107</v>
-      </c>
-      <c r="D23" t="s">
-        <v>108</v>
       </c>
       <c r="E23">
         <v>151251</v>
       </c>
       <c r="F23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45209</v>
+      </c>
+      <c r="H23" s="1">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>109</v>
       </c>
-      <c r="G23">
-        <v>152000</v>
-      </c>
-      <c r="H23" s="1">
-        <v>45209</v>
-      </c>
-      <c r="I23" s="1">
-        <v>45535</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>110</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E24">
         <v>150822</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24">
-        <v>200000</v>
+        <v>113</v>
+      </c>
+      <c r="G24" s="1">
+        <v>44886</v>
       </c>
       <c r="H24" s="1">
-        <v>44886</v>
-      </c>
-      <c r="I24" s="1">
         <v>45098</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="G25" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="3">
+      <c r="C26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="3">
         <v>45296</v>
       </c>
-      <c r="I25" s="3">
+      <c r="H26" s="3">
         <v>45302</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="3">
+      <c r="C27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="3">
         <v>45296</v>
       </c>
-      <c r="I26" s="3">
+      <c r="H27" s="3">
         <v>45302</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="3">
+      <c r="C28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="3">
         <v>45296</v>
       </c>
-      <c r="I27" s="3">
+      <c r="H28" s="3">
         <v>45302</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="3">
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="3">
         <v>45296</v>
       </c>
-      <c r="I28" s="3">
+      <c r="H29" s="3">
         <v>45302</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="3">
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="3">
         <v>45296</v>
       </c>
-      <c r="I29" s="3">
+      <c r="H30" s="3">
         <v>45302</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>127</v>
       </c>
-      <c r="H30" s="3">
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="3">
         <v>45296</v>
       </c>
-      <c r="I30" s="3">
+      <c r="H31" s="3">
         <v>45302</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="3">
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="3">
         <v>45296</v>
       </c>
-      <c r="I31" s="3">
+      <c r="H32" s="3">
         <v>45302</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>131</v>
       </c>
-      <c r="H32" s="3">
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="3">
         <v>45296</v>
       </c>
-      <c r="I32" s="3">
-        <v>45302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" t="s">
-        <v>133</v>
-      </c>
       <c r="H33" s="3">
-        <v>45296</v>
-      </c>
-      <c r="I33" s="3">
         <v>45302</v>
       </c>
     </row>
